--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H2">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N2">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q2">
-        <v>0.02005062506311111</v>
+        <v>0.005539624191999999</v>
       </c>
       <c r="R2">
-        <v>0.180455625568</v>
+        <v>0.04985661772799999</v>
       </c>
       <c r="S2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="T2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H3">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>2.143456</v>
       </c>
       <c r="O3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q3">
-        <v>0.04602523987911111</v>
+        <v>0.014772698752</v>
       </c>
       <c r="R3">
-        <v>0.414227158912</v>
+        <v>0.132954288768</v>
       </c>
       <c r="S3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="T3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H4">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N4">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q4">
-        <v>0.07692999235688888</v>
+        <v>0.023678079388</v>
       </c>
       <c r="R4">
-        <v>0.6923699312119999</v>
+        <v>0.213102714492</v>
       </c>
       <c r="S4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="T4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.020676</v>
+      </c>
+      <c r="H5">
+        <v>0.062028</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.06441733333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.193252</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N5">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q5">
-        <v>0.002227293717333333</v>
+        <v>0.00117201906</v>
       </c>
       <c r="R5">
-        <v>0.020045643456</v>
+        <v>0.01054817154</v>
       </c>
       <c r="S5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="T5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
     </row>
   </sheetData>
